--- a/logs.xlsx
+++ b/logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -704,450 +704,482 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>11:59:12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>11:59:18</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>11:59:24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>11:59:30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>11:59:36</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>11:59:42</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>11:59:48</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>11:59:55</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>12:00:01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>12:00:07</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>12:00:13</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>12:00:19</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>12:00:25</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>10/14/2022</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>12:00:31</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19:29:25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.4</t>
         </is>
       </c>
     </row>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1152,32 +1152,9710 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>19:29:25</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>21:09:30</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>21:09:36</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>21:09:41</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>21:09:48</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>21:09:54</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>21:09:59</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>21:10:05</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>21:10:11</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>21:10:16</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>21:10:22</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>21:10:27</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>21:10:33</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>21:10:39</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>21:10:45</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>21:10:51</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>21:10:56</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>21:11:02</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>21:11:08</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>21:11:13</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>21:11:19</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>21:11:25</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>21:11:31</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>21:11:37</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>21:11:43</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>21:11:49</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>21:11:55</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>21:12:01</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>21:12:07</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>21:12:13</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>21:12:19</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>21:12:25</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>21:12:30</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>21:12:36</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>21:12:42</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>21:12:47</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>21:12:48</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>21:12:53</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>21:12:59</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>21:13:05</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>21:13:10</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>21:13:16</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>21:13:22</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>21:13:27</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>21:13:34</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>21:13:39</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>21:13:46</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>21:13:52</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>21:13:57</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>21:14:03</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>21:14:09</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>21:14:14</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>21:14:21</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>21:14:26</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>21:14:32</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Ali Veli Gurme Pide</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>21:14:38</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>21:14:43</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>21:14:49</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>21:14:55</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>21:15:06</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>21:15:12</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>21:15:18</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>21:15:23</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>21:15:29</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>21:15:35</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>21:15:41</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>21:15:46</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>21:15:52</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>21:15:58</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>21:16:04</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>21:16:10</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>21:16:17</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>21:16:23</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>21:16:29</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>21:16:34</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>21:16:40</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>21:16:46</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>21:16:52</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>21:16:58</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>21:17:04</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>21:17:09</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>21:17:15</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>21:17:21</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>21:17:27</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>21:17:32</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>21:17:38</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>21:17:44</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>21:17:49</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>21:17:56</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>21:18:01</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>21:18:07</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>21:18:13</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>21:18:19</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>21:18:24</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>21:18:30</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>21:18:36</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>21:18:42</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>21:18:48</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>21:18:54</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>21:18:59</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>21:19:05</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>21:19:11</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>21:19:18</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>21:19:24</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>21:19:29</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>21:19:35</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>21:19:41</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>21:19:47</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F131" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>21:19:52</t>
+        </is>
+      </c>
+      <c r="E132" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>21:19:58</t>
+        </is>
+      </c>
+      <c r="E133" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>21:20:04</t>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>21:20:10</t>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F135" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>21:20:16</t>
+        </is>
+      </c>
+      <c r="E136" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F136" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>21:20:22</t>
+        </is>
+      </c>
+      <c r="E137" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>21:20:27</t>
+        </is>
+      </c>
+      <c r="E138" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F138" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>21:20:33</t>
+        </is>
+      </c>
+      <c r="E139" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F139" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>21:20:39</t>
+        </is>
+      </c>
+      <c r="E140" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F140" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>21:20:45</t>
+        </is>
+      </c>
+      <c r="E141" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>21:20:51</t>
+        </is>
+      </c>
+      <c r="E142" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>21:20:56</t>
+        </is>
+      </c>
+      <c r="E143" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F143" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>21:21:02</t>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F144" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t>21:21:10</t>
+        </is>
+      </c>
+      <c r="E145" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>21:21:16</t>
+        </is>
+      </c>
+      <c r="E146" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>21:21:21</t>
+        </is>
+      </c>
+      <c r="E147" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F147" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>21:21:27</t>
+        </is>
+      </c>
+      <c r="E148" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>21:21:33</t>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>21:21:38</t>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>21:21:44</t>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>21:21:50</t>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>21:21:56</t>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>21:22:01</t>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>21:22:07</t>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F155" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t>21:22:13</t>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F156" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t>21:22:19</t>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t>21:22:25</t>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t>21:22:25</t>
+        </is>
+      </c>
+      <c r="E159" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t>21:22:31</t>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t>21:22:36</t>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>21:22:42</t>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>21:22:47</t>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>21:22:53</t>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>21:22:59</t>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>21:23:04</t>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>21:23:10</t>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>21:23:15</t>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>21:23:21</t>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>21:23:28</t>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>21:23:33</t>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F171" s="0" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>21:23:33</t>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F172" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>21:23:39</t>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>21:23:45</t>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>21:23:51</t>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F175" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>21:23:57</t>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F176" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>21:24:03</t>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>21:24:09</t>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>21:24:14</t>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F179" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>21:24:20</t>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F180" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>21:24:26</t>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>21:24:32</t>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>21:24:37</t>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F183" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>22:09:31</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>22:09:37</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>22:09:43</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>22:09:49</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>22:09:55</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>22:10:01</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>22:10:07</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>22:10:13</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>22:10:19</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>22:10:24</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>22:10:30</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>22:10:36</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>22:10:42</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>22:10:48</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>22:10:55</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>22:11:01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>22:11:07</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>22:11:13</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>22:11:19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>22:11:25</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>22:11:31</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>22:11:37</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>22:11:43</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>22:11:49</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>22:11:57</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>22:12:03</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>22:12:09</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>22:12:15</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>22:12:21</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>22:12:27</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>22:12:33</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>22:12:39</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>22:12:45</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>22:12:51</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>22:12:57</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>22:13:03</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>22:13:09</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>22:13:15</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>22:13:22</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>22:13:28</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>22:13:34</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>22:13:40</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>22:13:46</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>22:13:53</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>22:13:58</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>22:14:04</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>22:14:11</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>22:14:17</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>22:14:24</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>22:14:30</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>22:14:36</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>22:14:41</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>22:14:47</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>22:14:53</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Ali Veli Gurme Pide</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>22:14:59</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>22:15:05</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>22:15:11</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>22:15:17</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>22:15:24</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>22:15:30</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>22:15:36</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>22:15:42</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>22:15:48</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>22:15:54</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>22:16:00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>22:16:06</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>22:16:12</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>22:16:18</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>22:16:24</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>22:16:30</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>22:16:36</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>22:16:42</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>22:16:48</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>22:16:54</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>22:17:00</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>22:17:06</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>22:17:12</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>22:17:18</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>22:17:24</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>22:17:30</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>22:17:36</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>22:17:42</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Kozyatağı</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>22:17:48</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>22:17:54</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>22:18:00</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>22:18:06</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>22:18:12</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>22:18:18</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>22:18:24</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>22:18:30</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>22:18:36</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>22:18:42</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>22:18:48</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>22:18:54</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>22:19:00</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>22:19:06</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>22:19:12</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>22:19:18</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>22:19:24</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>22:19:30</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>22:19:35</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>22:19:42</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>22:19:48</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>22:19:54</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>22:20:06</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>22:20:12</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>22:20:18</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>22:20:25</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>22:20:31</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>22:20:36</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>22:20:43</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>22:20:49</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>22:20:55</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>22:21:01</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>22:21:07</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>22:21:13</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>22:21:19</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>22:21:26</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>22:21:32</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>22:21:38</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>22:21:44</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>22:21:50</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>22:21:56</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>22:22:02</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>22:22:08</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>22:22:14</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>22:22:20</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>22:22:26</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>22:22:32</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>22:22:38</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>22:22:45</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sushi Master</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>22:22:51</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>22:22:56</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>22:23:02</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Maslak</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>22:23:08</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>22:23:15</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>22:23:21</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>22:23:26</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>22:23:32</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>22:23:38</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>22:23:44</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>22:23:50</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>İzmir</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>22:23:56</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6274,4590 +6274,6126 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="A184" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
         <is>
           <t>22:09:31</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
+      <c r="E184" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F184" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
         <is>
           <t>22:09:37</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E185" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F185" s="0" t="inlineStr">
         <is>
           <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
         <is>
           <t>22:09:43</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
+      <c r="E186" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="A187" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
         <is>
           <t>22:09:49</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
+      <c r="E187" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F187" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
         <is>
           <t>22:09:55</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
+      <c r="E188" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F188" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
         <is>
           <t>22:10:01</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E189" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
         <is>
           <t>22:10:07</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B191" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
         <is>
           <t>22:10:13</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E191" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F191" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
         <is>
           <t>22:10:19</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
+      <c r="E192" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F192" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
         <is>
           <t>22:10:24</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
         <is>
           <t>22:10:30</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E194" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F194" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
         <is>
           <t>22:10:36</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
+      <c r="E195" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F195" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
         <is>
           <t>22:10:42</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E196" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F196" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="A197" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
         <is>
           <t>22:10:48</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
+      <c r="E197" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F197" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
         <is>
           <t>22:10:55</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
+      <c r="E198" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
         <is>
           <t>22:11:01</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
         <is>
           <t>22:11:07</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
+      <c r="E200" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
         <is>
           <t>22:11:13</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E201" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F201" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="A202" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
         <is>
           <t>22:11:19</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
+      <c r="E202" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
         <is>
           <t>22:11:25</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
+      <c r="E203" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
         <is>
           <t>22:11:31</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="E204" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="A205" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
         <is>
           <t>22:11:37</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
+      <c r="E205" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
         <is>
           <t>22:11:43</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
+      <c r="E206" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="0" t="inlineStr">
         <is>
           <t>Seez Beez</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
         <is>
           <t>22:11:49</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
+      <c r="E207" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A208" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
         <is>
           <t>22:11:57</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
+      <c r="E208" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="0" t="inlineStr">
         <is>
           <t>Tabur Köfte</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
         <is>
           <t>22:12:03</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
+      <c r="E209" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
         <is>
           <t>22:12:09</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
+      <c r="E210" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="0" t="inlineStr">
         <is>
           <t>Acıbadem</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
         <is>
           <t>22:12:15</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
+      <c r="E211" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="A212" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
         <is>
           <t>22:12:21</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="A213" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
         <is>
           <t>22:12:27</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="F213" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
         <is>
           <t>22:12:33</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
+      <c r="E214" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
         <is>
           <t>22:12:39</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
+      <c r="E215" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
         <is>
           <t>22:12:45</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
+      <c r="E216" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A217" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
         <is>
           <t>22:12:51</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E217" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F217" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="A218" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
         <is>
           <t>22:12:57</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
+      <c r="E218" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F218" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="A219" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
         <is>
           <t>22:13:03</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E219" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F219" s="0" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="A220" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
         <is>
           <t>22:13:09</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
+      <c r="E220" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
         <is>
           <t>22:13:15</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
         <is>
           <t>22:13:22</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="E222" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="A223" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
         <is>
           <t>22:13:28</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
+      <c r="E223" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="A224" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
         <is>
           <t>22:13:34</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
+      <c r="E224" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="A225" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
         <is>
           <t>22:13:40</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
+      <c r="E225" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="A226" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
         <is>
           <t>22:13:46</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F226" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
         <is>
           <t>22:13:53</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
+      <c r="E227" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
         <is>
           <t>22:13:58</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
+      <c r="E228" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="A229" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
         <is>
           <t>22:14:04</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
+      <c r="E229" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="A230" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
         <is>
           <t>22:14:11</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
+      <c r="E230" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
         <is>
           <t>22:14:17</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
+      <c r="E231" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="A232" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
         <is>
           <t>22:14:24</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
+      <c r="E232" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="0" t="inlineStr">
         <is>
           <t>Seez Beez</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
         <is>
           <t>22:14:30</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
+      <c r="E233" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
         <is>
           <t>22:14:36</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
+      <c r="E234" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="0" t="inlineStr">
         <is>
           <t>Sushi Master</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
         <is>
           <t>22:14:41</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
+      <c r="E235" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
         <is>
           <t>22:14:47</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
+      <c r="E236" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="A237" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
         <is>
           <t>22:14:53</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
+      <c r="E237" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="0" t="inlineStr">
         <is>
           <t>Ali Veli Gurme Pide</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
         <is>
           <t>22:14:59</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="A239" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
         <is>
           <t>22:15:05</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
+      <c r="E239" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="A240" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
         <is>
           <t>22:15:11</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F240" s="0" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
         <is>
           <t>22:15:17</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
+      <c r="E241" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="A242" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
         <is>
           <t>22:15:24</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
+      <c r="E242" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
         <is>
           <t>22:15:30</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
+      <c r="E243" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
         <is>
           <t>22:15:36</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E244" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="A245" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
         <is>
           <t>22:15:42</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="A246" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
         <is>
           <t>22:15:48</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="A247" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
         <is>
           <t>22:15:54</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
+      <c r="E247" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
         <is>
           <t>22:16:00</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
         <is>
           <t>22:16:06</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
+      <c r="E249" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
         <is>
           <t>22:16:12</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="A251" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
         <is>
           <t>22:16:18</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="E251" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="F251" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
         <is>
           <t>22:16:24</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
         <is>
           <t>22:16:30</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
+      <c r="E253" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="A254" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
         <is>
           <t>22:16:36</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E254" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F254" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="A255" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
         <is>
           <t>22:16:42</t>
         </is>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="E255" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="F255" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="A256" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
         <is>
           <t>22:16:48</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="A257" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
         <is>
           <t>22:16:54</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
+      <c r="E257" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="A258" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
         <is>
           <t>22:17:00</t>
         </is>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
+      <c r="E258" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="A259" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
         <is>
           <t>22:17:06</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
+      <c r="E259" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
         <is>
           <t>22:17:12</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
+      <c r="E260" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
         <is>
           <t>22:17:18</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
+      <c r="E261" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
         <is>
           <t>22:17:24</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
+      <c r="E262" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="A263" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="0" t="inlineStr">
         <is>
           <t>Sushi Master</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
         <is>
           <t>22:17:30</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="E263" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F263" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="0" t="inlineStr">
         <is>
           <t>Tabur Köfte</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
         <is>
           <t>22:17:36</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
+      <c r="E264" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
         <is>
           <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="A265" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
         <is>
           <t>22:17:42</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
+      <c r="E265" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="0" t="inlineStr">
         <is>
           <t>Kozyatağı</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
         <is>
           <t>22:17:48</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
+      <c r="E266" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
         <is>
           <t>22:17:54</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
+      <c r="E267" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="A268" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
         <is>
           <t>22:18:00</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="0" t="inlineStr">
         <is>
           <t>2.9</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="A269" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
         <is>
           <t>22:18:06</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
+      <c r="E269" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
         <is>
           <t>22:18:12</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
+      <c r="E270" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
         <is>
           <t>22:18:18</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
+      <c r="E271" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B272" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
         <is>
           <t>22:18:24</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E272" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="F272" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
         <is>
           <t>22:18:30</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="A274" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
         <is>
           <t>22:18:36</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
+      <c r="E274" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
         <is>
           <t>22:18:42</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="F275" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
         <is>
           <t>22:18:48</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="A277" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
         <is>
           <t>22:18:54</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
+      <c r="E277" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="A278" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
         <is>
           <t>22:19:00</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
+      <c r="E278" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="A279" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
         <is>
           <t>22:19:06</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
+      <c r="E279" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="A280" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D280" s="0" t="inlineStr">
         <is>
           <t>22:19:12</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E280" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
+      <c r="F280" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
         <is>
           <t>22:19:18</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr">
+      <c r="E281" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="F281" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="A282" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
         <is>
           <t>22:19:24</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr">
+      <c r="E282" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
+      <c r="F282" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="A283" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D283" s="0" t="inlineStr">
         <is>
           <t>22:19:30</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
+      <c r="E283" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F283" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="A284" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
         <is>
           <t>22:19:35</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
+      <c r="E284" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F284" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="A285" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
         <is>
           <t>22:19:42</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
+      <c r="E285" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="A286" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
         <is>
           <t>22:19:48</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
+      <c r="E286" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F286" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="A287" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
         <is>
           <t>22:19:54</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
+      <c r="E287" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F287" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="A288" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D288" s="0" t="inlineStr">
         <is>
           <t>22:20:00</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
+      <c r="E288" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F288" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="A289" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="0" t="inlineStr">
         <is>
           <t>Sushi Master</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
         <is>
           <t>22:20:06</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr">
+      <c r="E289" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="A290" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="B290" s="0" t="inlineStr">
         <is>
           <t>Tabur Köfte</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
         <is>
           <t>22:20:12</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
+      <c r="E290" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F290" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="A291" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
         <is>
           <t>22:20:18</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
+      <c r="E291" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F291" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="A292" s="0" t="inlineStr">
         <is>
           <t>FSM</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
         <is>
           <t>22:20:25</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
+      <c r="E292" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F292" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
+      <c r="A293" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
         <is>
           <t>22:20:31</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
+      <c r="E293" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="A294" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B294" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
         <is>
           <t>22:20:36</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="E294" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="F294" s="0" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
+      <c r="A295" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B295" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
         <is>
           <t>22:20:43</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
+      <c r="E295" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F295" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
+      <c r="A296" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B296" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
         <is>
           <t>22:20:49</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
+      <c r="E296" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F296" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
+      <c r="A297" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B297" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
         <is>
           <t>22:20:55</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
+      <c r="E297" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
+      <c r="A298" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B298" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
         <is>
           <t>22:21:01</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E298" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
+      <c r="F298" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
+      <c r="A299" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B299" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
         <is>
           <t>22:21:07</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="E299" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
+      <c r="F299" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="A300" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
         <is>
           <t>22:21:13</t>
         </is>
       </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
+      <c r="E300" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F300" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
+      <c r="A301" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="B301" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
         <is>
           <t>22:21:19</t>
         </is>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="E301" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="F301" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
+      <c r="A302" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B302" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D302" s="0" t="inlineStr">
         <is>
           <t>22:21:26</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
+      <c r="E302" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
+      <c r="F302" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
+      <c r="A303" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D303" s="0" t="inlineStr">
         <is>
           <t>22:21:32</t>
         </is>
       </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
+      <c r="E303" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F303" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
+      <c r="A304" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D304" s="0" t="inlineStr">
         <is>
           <t>22:21:38</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
+      <c r="E304" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="F304" s="0" t="inlineStr">
         <is>
           <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
+      <c r="A305" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D305" s="0" t="inlineStr">
         <is>
           <t>22:21:44</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
+      <c r="E305" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F305" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
+      <c r="A306" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D306" s="0" t="inlineStr">
         <is>
           <t>22:21:50</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
+      <c r="E306" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F306" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
+      <c r="A307" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D307" s="0" t="inlineStr">
         <is>
           <t>22:21:56</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="E307" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
+      <c r="F307" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
+      <c r="A308" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D308" s="0" t="inlineStr">
         <is>
           <t>22:22:02</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="E308" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F308" t="inlineStr">
+      <c r="F308" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
+      <c r="A309" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D309" s="0" t="inlineStr">
         <is>
           <t>22:22:08</t>
         </is>
       </c>
-      <c r="E309" t="inlineStr">
+      <c r="E309" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
+      <c r="F309" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
+      <c r="A310" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D310" s="0" t="inlineStr">
         <is>
           <t>22:22:14</t>
         </is>
       </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
+      <c r="E310" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F310" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
+      <c r="A311" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D311" s="0" t="inlineStr">
         <is>
           <t>22:22:20</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
+      <c r="E311" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F311" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
+      <c r="A312" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D312" s="0" t="inlineStr">
         <is>
           <t>22:22:26</t>
         </is>
       </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
+      <c r="E312" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F312" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
+      <c r="A313" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D313" s="0" t="inlineStr">
         <is>
           <t>22:22:32</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
+      <c r="E313" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F313" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
+      <c r="A314" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
+      <c r="B314" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D314" s="0" t="inlineStr">
         <is>
           <t>22:22:38</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
+      <c r="E314" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F314" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
+      <c r="A315" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
+      <c r="B315" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D315" s="0" t="inlineStr">
         <is>
           <t>22:22:45</t>
         </is>
       </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
+      <c r="E315" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F315" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
+      <c r="A316" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
+      <c r="B316" s="0" t="inlineStr">
         <is>
           <t>Sushi Master</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
+      <c r="C316" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D316" s="0" t="inlineStr">
         <is>
           <t>22:22:51</t>
         </is>
       </c>
-      <c r="E316" t="inlineStr">
+      <c r="E316" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
+      <c r="F316" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
+      <c r="A317" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="B317" s="0" t="inlineStr">
         <is>
           <t>Tabur Köfte</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
+      <c r="C317" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D317" s="0" t="inlineStr">
         <is>
           <t>22:22:56</t>
         </is>
       </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
+      <c r="E317" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F317" s="0" t="inlineStr">
         <is>
           <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
+      <c r="A318" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B318" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
+      <c r="C318" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D318" s="0" t="inlineStr">
         <is>
           <t>22:23:02</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
+      <c r="E318" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F318" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
+      <c r="A319" s="0" t="inlineStr">
         <is>
           <t>Maslak</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="B319" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
+      <c r="C319" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D319" s="0" t="inlineStr">
         <is>
           <t>22:23:08</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
+      <c r="E319" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F319" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D320" s="0" t="inlineStr">
         <is>
           <t>22:23:15</t>
         </is>
       </c>
-      <c r="E320" t="inlineStr">
+      <c r="E320" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
+      <c r="F320" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="A321" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D321" s="0" t="inlineStr">
         <is>
           <t>22:23:21</t>
         </is>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
+      <c r="A322" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
+      <c r="C322" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D322" s="0" t="inlineStr">
         <is>
           <t>22:23:26</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr">
+      <c r="E322" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
+      <c r="F322" s="0" t="inlineStr">
         <is>
           <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
+      <c r="C323" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D323" s="0" t="inlineStr">
         <is>
           <t>22:23:32</t>
         </is>
       </c>
-      <c r="E323" t="inlineStr">
+      <c r="E323" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
+      <c r="F323" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="A324" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D324" s="0" t="inlineStr">
         <is>
           <t>22:23:38</t>
         </is>
       </c>
-      <c r="E324" t="inlineStr">
+      <c r="E324" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr">
+      <c r="F324" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="A325" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D325" s="0" t="inlineStr">
         <is>
           <t>22:23:44</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
+      <c r="E325" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
+      <c r="F325" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="A326" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
+      <c r="C326" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D326" s="0" t="inlineStr">
         <is>
           <t>22:23:50</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr">
+      <c r="E326" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="A327" s="0" t="inlineStr">
         <is>
           <t>İzmir</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>14/10/2022</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
+      <c r="C327" s="0" t="inlineStr">
+        <is>
+          <t>14/10/2022</t>
+        </is>
+      </c>
+      <c r="D327" s="0" t="inlineStr">
         <is>
           <t>22:23:56</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
+      <c r="E327" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr">
+      <c r="F327" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>19:42:47</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>19:42:56</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>19:42:57</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>19:42:57</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>19:42:58</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>19:42:58</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>19:42:59</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>19:42:59</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>19:43:07</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>19:43:13</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>19:43:18</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>19:43:24</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>19:43:24</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>19:43:25</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>19:43:25</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>19:43:31</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>19:43:37</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>19:43:38</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>19:43:44</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>19:43:44</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>19:43:45</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>19:43:45</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>19:43:52</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>19:43:52</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>19:43:52</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>19:43:53</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>The Bowl</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>19:43:59</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Veganista</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>19:43:59</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>19:44:00</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>19:44:00</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>19:44:01</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>19:44:01</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>19:44:07</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>19:44:07</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>19:44:08</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>19:44:13</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>19:44:14</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>19:44:20</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>19:44:26</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>19:44:32</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>19:44:37</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>19:44:38</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>19:44:38</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>19:44:44</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>19:44:50</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>19:44:56</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>'NoneType' object has no attribute 'find'</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>19:44:57</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Ataşehir</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>16/10/2022</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>19:45:02</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>4.3</t>
         </is>
       </c>
     </row>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -10862,1538 +10862,2530 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
+      <c r="A328" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B328" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
+      <c r="D328" s="0" t="inlineStr">
         <is>
           <t>19:42:47</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
+      <c r="E328" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F328" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
+      <c r="A329" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B329" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
+      <c r="C329" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
+      <c r="D329" s="0" t="inlineStr">
         <is>
           <t>19:42:56</t>
         </is>
       </c>
-      <c r="E329" t="inlineStr">
+      <c r="E329" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr">
+      <c r="F329" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
+      <c r="A330" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B330" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
+      <c r="D330" s="0" t="inlineStr">
         <is>
           <t>19:42:57</t>
         </is>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="E330" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr">
+      <c r="F330" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
+      <c r="A331" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B331" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
+      <c r="D331" s="0" t="inlineStr">
         <is>
           <t>19:42:57</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr">
+      <c r="E331" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F331" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
+      <c r="A332" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B332" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C332" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
+      <c r="D332" s="0" t="inlineStr">
         <is>
           <t>19:42:58</t>
         </is>
       </c>
-      <c r="E332" t="inlineStr">
+      <c r="E332" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr">
+      <c r="F332" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
+      <c r="A333" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B333" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
+      <c r="D333" s="0" t="inlineStr">
         <is>
           <t>19:42:58</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
+      <c r="E333" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr">
+      <c r="F333" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
+      <c r="A334" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B334" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+      <c r="C334" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
+      <c r="D334" s="0" t="inlineStr">
         <is>
           <t>19:42:59</t>
         </is>
       </c>
-      <c r="E334" t="inlineStr">
+      <c r="E334" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr">
+      <c r="F334" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
+      <c r="A335" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B335" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C335" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
+      <c r="D335" s="0" t="inlineStr">
         <is>
           <t>19:42:59</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
+      <c r="E335" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F335" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
+      <c r="A336" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B336" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="C336" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
+      <c r="D336" s="0" t="inlineStr">
         <is>
           <t>19:43:07</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
+      <c r="E336" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F336" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
+      <c r="A337" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B337" s="0" t="inlineStr">
         <is>
           <t>Etişler Köfte</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="C337" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
+      <c r="D337" s="0" t="inlineStr">
         <is>
           <t>19:43:13</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
+      <c r="E337" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F337" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
+      <c r="A338" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B338" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C338" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
+      <c r="D338" s="0" t="inlineStr">
         <is>
           <t>19:43:18</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
+      <c r="E338" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F338" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
+      <c r="A339" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B339" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
+      <c r="D339" s="0" t="inlineStr">
         <is>
           <t>19:43:24</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F339" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
+      <c r="A340" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B340" s="0" t="inlineStr">
         <is>
           <t>G&amp;G Burger</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
+      <c r="D340" s="0" t="inlineStr">
         <is>
           <t>19:43:24</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr">
+      <c r="E340" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
+      <c r="F340" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
+      <c r="A341" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B341" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
+      <c r="D341" s="0" t="inlineStr">
         <is>
           <t>19:43:25</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
+      <c r="A342" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B342" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
+      <c r="D342" s="0" t="inlineStr">
         <is>
           <t>19:43:25</t>
         </is>
       </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
+      <c r="E342" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F342" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
+      <c r="A343" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B343" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
+      <c r="D343" s="0" t="inlineStr">
         <is>
           <t>19:43:31</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
+      <c r="E343" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F343" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
+      <c r="A344" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B344" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
+      <c r="D344" s="0" t="inlineStr">
         <is>
           <t>19:43:37</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
+      <c r="E344" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F344" t="inlineStr">
+      <c r="F344" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
+      <c r="A345" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B345" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
+      <c r="D345" s="0" t="inlineStr">
         <is>
           <t>19:43:38</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
+      <c r="E345" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F345" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
+      <c r="A346" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B346" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
+      <c r="C346" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr">
+      <c r="D346" s="0" t="inlineStr">
         <is>
           <t>19:43:44</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr">
+      <c r="E346" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F346" t="inlineStr">
+      <c r="F346" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
+      <c r="A347" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B347" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C347" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
+      <c r="D347" s="0" t="inlineStr">
         <is>
           <t>19:43:44</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr">
+      <c r="E347" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F347" t="inlineStr">
+      <c r="F347" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
+      <c r="A348" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B348" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="C348" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
+      <c r="D348" s="0" t="inlineStr">
         <is>
           <t>19:43:45</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr">
+      <c r="E348" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F348" t="inlineStr">
+      <c r="F348" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
+      <c r="A349" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B349" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
+      <c r="D349" s="0" t="inlineStr">
         <is>
           <t>19:43:45</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
+      <c r="E349" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F349" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
+      <c r="A350" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B350" s="0" t="inlineStr">
         <is>
           <t>Rylee's Ranch Salad</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
+      <c r="D350" s="0" t="inlineStr">
         <is>
           <t>19:43:52</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr">
+      <c r="E350" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
+      <c r="F350" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
+      <c r="A351" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B351" s="0" t="inlineStr">
         <is>
           <t>Seez Beez</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
+      <c r="D351" s="0" t="inlineStr">
         <is>
           <t>19:43:52</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E351" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
+      <c r="F351" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
+      <c r="A352" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B352" s="0" t="inlineStr">
         <is>
           <t>Senor Torreon</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
+      <c r="C352" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
+      <c r="D352" s="0" t="inlineStr">
         <is>
           <t>19:43:52</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr">
+      <c r="E352" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F352" t="inlineStr">
+      <c r="F352" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
+      <c r="A353" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B353" s="0" t="inlineStr">
         <is>
           <t>Tabur Köfte</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
+      <c r="C353" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
+      <c r="D353" s="0" t="inlineStr">
         <is>
           <t>19:43:53</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
+      <c r="E353" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F353" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
+      <c r="A354" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B354" s="0" t="inlineStr">
         <is>
           <t>The Bowl</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
+      <c r="C354" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr">
+      <c r="D354" s="0" t="inlineStr">
         <is>
           <t>19:43:59</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr">
+      <c r="E354" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F354" t="inlineStr">
+      <c r="F354" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Acıbadem</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
+      <c r="A355" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B355" s="0" t="inlineStr">
         <is>
           <t>Veganista</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="C355" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
+      <c r="D355" s="0" t="inlineStr">
         <is>
           <t>19:43:59</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr">
+      <c r="E355" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F355" t="inlineStr">
+      <c r="F355" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
+      <c r="A356" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
+      <c r="B356" s="0" t="inlineStr">
         <is>
           <t>Alle Bowls</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C356" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
+      <c r="D356" s="0" t="inlineStr">
         <is>
           <t>19:44:00</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr">
+      <c r="E356" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr">
+      <c r="F356" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="A357" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
+      <c r="B357" s="0" t="inlineStr">
         <is>
           <t>Arianas Cheesecake</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="C357" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
+      <c r="D357" s="0" t="inlineStr">
         <is>
           <t>19:44:00</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
+      <c r="E357" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F357" t="inlineStr">
+      <c r="F357" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="A358" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
+      <c r="B358" s="0" t="inlineStr">
         <is>
           <t>Big Bold Quick</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="C358" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
+      <c r="D358" s="0" t="inlineStr">
         <is>
           <t>19:44:01</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr">
+      <c r="E358" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr">
+      <c r="F358" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="A359" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
+      <c r="B359" s="0" t="inlineStr">
         <is>
           <t>Caesar Salad By</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
+      <c r="C359" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
+      <c r="D359" s="0" t="inlineStr">
         <is>
           <t>19:44:01</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
+      <c r="E359" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F359" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="A360" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
+      <c r="B360" s="0" t="inlineStr">
         <is>
           <t>Çosa</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
+      <c r="C360" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
+      <c r="D360" s="0" t="inlineStr">
         <is>
           <t>19:44:07</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr">
+      <c r="E360" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F360" t="inlineStr">
+      <c r="F360" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
+      <c r="A361" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr">
+      <c r="B361" s="0" t="inlineStr">
         <is>
           <t>Detroit Bad Boys Pizza</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
+      <c r="C361" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
+      <c r="D361" s="0" t="inlineStr">
         <is>
           <t>19:44:07</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr">
+      <c r="E361" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F361" t="inlineStr">
+      <c r="F361" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
+      <c r="A362" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr">
+      <c r="B362" s="0" t="inlineStr">
         <is>
           <t>Dlycious Dyssert</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
+      <c r="C362" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr">
+      <c r="D362" s="0" t="inlineStr">
         <is>
           <t>19:44:08</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
+      <c r="E362" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F362" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
+      <c r="A363" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr">
+      <c r="B363" s="0" t="inlineStr">
         <is>
           <t>Doyuyo</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
+      <c r="C363" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr">
+      <c r="D363" s="0" t="inlineStr">
         <is>
           <t>19:44:13</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr">
+      <c r="E363" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr">
+      <c r="F363" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
+      <c r="A364" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr">
+      <c r="B364" s="0" t="inlineStr">
         <is>
           <t>El Pollo Lasso</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
+      <c r="C364" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr">
+      <c r="D364" s="0" t="inlineStr">
         <is>
           <t>19:44:14</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
+      <c r="E364" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F364" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
+      <c r="A365" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr">
+      <c r="B365" s="0" t="inlineStr">
         <is>
           <t>Fadelini</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
+      <c r="C365" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
+      <c r="D365" s="0" t="inlineStr">
         <is>
           <t>19:44:20</t>
         </is>
       </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
+      <c r="E365" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F365" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
+      <c r="A366" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
+      <c r="B366" s="0" t="inlineStr">
         <is>
           <t>Fun For Fit</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="C366" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
+      <c r="D366" s="0" t="inlineStr">
         <is>
           <t>19:44:26</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
+      <c r="E366" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F366" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
+      <c r="A367" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr">
+      <c r="B367" s="0" t="inlineStr">
         <is>
           <t>Gurra Tavuk</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
+      <c r="C367" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr">
+      <c r="D367" s="0" t="inlineStr">
         <is>
           <t>19:44:32</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
+      <c r="E367" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F367" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
+      <c r="A368" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
+      <c r="B368" s="0" t="inlineStr">
         <is>
           <t>Jay Jay Fries</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
+      <c r="C368" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr">
+      <c r="D368" s="0" t="inlineStr">
         <is>
           <t>19:44:37</t>
         </is>
       </c>
-      <c r="E368" t="inlineStr">
+      <c r="E368" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F368" t="inlineStr">
+      <c r="F368" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
+      <c r="A369" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
+      <c r="B369" s="0" t="inlineStr">
         <is>
           <t>Kale Arkası Mutfak</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
+      <c r="C369" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr">
+      <c r="D369" s="0" t="inlineStr">
         <is>
           <t>19:44:38</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr">
+      <c r="E369" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F369" t="inlineStr">
+      <c r="F369" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
+      <c r="A370" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
+      <c r="B370" s="0" t="inlineStr">
         <is>
           <t>Kengeres Çiğ Köfte</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
+      <c r="C370" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr">
+      <c r="D370" s="0" t="inlineStr">
         <is>
           <t>19:44:38</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
+      <c r="E370" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F370" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
+      <c r="A371" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
+      <c r="B371" s="0" t="inlineStr">
         <is>
           <t>Madritas</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
+      <c r="C371" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr">
+      <c r="D371" s="0" t="inlineStr">
         <is>
           <t>19:44:44</t>
         </is>
       </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
+      <c r="E371" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F371" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
+      <c r="A372" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr">
+      <c r="B372" s="0" t="inlineStr">
         <is>
           <t>Mztps Meze</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C372" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr">
+      <c r="D372" s="0" t="inlineStr">
         <is>
           <t>19:44:50</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
+      <c r="E372" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F372" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
+      <c r="A373" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr">
+      <c r="B373" s="0" t="inlineStr">
         <is>
           <t>Nane Mantı</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
+      <c r="C373" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr">
+      <c r="D373" s="0" t="inlineStr">
         <is>
           <t>19:44:56</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr">
+      <c r="E373" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
-      <c r="F373" t="inlineStr">
+      <c r="F373" s="0" t="inlineStr">
         <is>
           <t>'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
+      <c r="A374" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr">
+      <c r="B374" s="0" t="inlineStr">
         <is>
           <t>Noody</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="C374" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr">
+      <c r="D374" s="0" t="inlineStr">
         <is>
           <t>19:44:57</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
+      <c r="E374" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F374" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
+      <c r="A375" s="0" t="inlineStr">
         <is>
           <t>Ataşehir</t>
         </is>
       </c>
-      <c r="B375" t="inlineStr">
+      <c r="B375" s="0" t="inlineStr">
         <is>
           <t>Red Haag</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
+      <c r="C375" s="0" t="inlineStr">
         <is>
           <t>16/10/2022</t>
         </is>
       </c>
-      <c r="D375" t="inlineStr">
+      <c r="D375" s="0" t="inlineStr">
         <is>
           <t>19:45:02</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
+      <c r="E375" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F375" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B376" s="0" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C376" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D376" s="0" t="inlineStr">
+        <is>
+          <t>19:43:32</t>
+        </is>
+      </c>
+      <c r="E376" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F376" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B377" s="0" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C377" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D377" s="0" t="inlineStr">
+        <is>
+          <t>19:43:38</t>
+        </is>
+      </c>
+      <c r="E377" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F377" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B378" s="0" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C378" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D378" s="0" t="inlineStr">
+        <is>
+          <t>19:43:44</t>
+        </is>
+      </c>
+      <c r="E378" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F378" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B379" s="0" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C379" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D379" s="0" t="inlineStr">
+        <is>
+          <t>19:43:50</t>
+        </is>
+      </c>
+      <c r="E379" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F379" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B380" s="0" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C380" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D380" s="0" t="inlineStr">
+        <is>
+          <t>19:43:56</t>
+        </is>
+      </c>
+      <c r="E380" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F380" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B381" s="0" t="inlineStr">
+        <is>
+          <t>Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="C381" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D381" s="0" t="inlineStr">
+        <is>
+          <t>19:44:03</t>
+        </is>
+      </c>
+      <c r="E381" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F381" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B382" s="0" t="inlineStr">
+        <is>
+          <t>Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="C382" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D382" s="0" t="inlineStr">
+        <is>
+          <t>19:44:09</t>
+        </is>
+      </c>
+      <c r="E382" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F382" s="0" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B383" s="0" t="inlineStr">
+        <is>
+          <t>Doyuyo</t>
+        </is>
+      </c>
+      <c r="C383" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D383" s="0" t="inlineStr">
+        <is>
+          <t>19:44:15</t>
+        </is>
+      </c>
+      <c r="E383" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F383" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B384" s="0" t="inlineStr">
+        <is>
+          <t>El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="C384" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D384" s="0" t="inlineStr">
+        <is>
+          <t>19:44:21</t>
+        </is>
+      </c>
+      <c r="E384" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F384" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B385" s="0" t="inlineStr">
+        <is>
+          <t>Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="C385" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D385" s="0" t="inlineStr">
+        <is>
+          <t>19:44:27</t>
+        </is>
+      </c>
+      <c r="E385" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F385" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B386" s="0" t="inlineStr">
+        <is>
+          <t>Fadelini</t>
+        </is>
+      </c>
+      <c r="C386" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D386" s="0" t="inlineStr">
+        <is>
+          <t>19:44:33</t>
+        </is>
+      </c>
+      <c r="E386" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F386" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B387" s="0" t="inlineStr">
+        <is>
+          <t>Fun For Fit</t>
+        </is>
+      </c>
+      <c r="C387" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D387" s="0" t="inlineStr">
+        <is>
+          <t>19:44:39</t>
+        </is>
+      </c>
+      <c r="E387" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F387" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B388" s="0" t="inlineStr">
+        <is>
+          <t>G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="C388" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D388" s="0" t="inlineStr">
+        <is>
+          <t>19:44:45</t>
+        </is>
+      </c>
+      <c r="E388" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F388" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B389" s="0" t="inlineStr">
+        <is>
+          <t>Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="C389" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D389" s="0" t="inlineStr">
+        <is>
+          <t>19:44:51</t>
+        </is>
+      </c>
+      <c r="E389" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F389" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B390" s="0" t="inlineStr">
+        <is>
+          <t>Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="C390" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D390" s="0" t="inlineStr">
+        <is>
+          <t>19:44:57</t>
+        </is>
+      </c>
+      <c r="E390" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F390" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B391" s="0" t="inlineStr">
+        <is>
+          <t>Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="C391" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D391" s="0" t="inlineStr">
+        <is>
+          <t>19:45:03</t>
+        </is>
+      </c>
+      <c r="E391" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F391" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B392" s="0" t="inlineStr">
+        <is>
+          <t>Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="C392" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D392" s="0" t="inlineStr">
+        <is>
+          <t>19:45:09</t>
+        </is>
+      </c>
+      <c r="E392" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F392" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B393" s="0" t="inlineStr">
+        <is>
+          <t>Madritas</t>
+        </is>
+      </c>
+      <c r="C393" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D393" s="0" t="inlineStr">
+        <is>
+          <t>19:45:16</t>
+        </is>
+      </c>
+      <c r="E393" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F393" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B394" s="0" t="inlineStr">
+        <is>
+          <t>Mztps Meze</t>
+        </is>
+      </c>
+      <c r="C394" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D394" s="0" t="inlineStr">
+        <is>
+          <t>19:45:21</t>
+        </is>
+      </c>
+      <c r="E394" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F394" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B395" s="0" t="inlineStr">
+        <is>
+          <t>Nane Mantı</t>
+        </is>
+      </c>
+      <c r="C395" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D395" s="0" t="inlineStr">
+        <is>
+          <t>19:45:28</t>
+        </is>
+      </c>
+      <c r="E395" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F395" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B396" s="0" t="inlineStr">
+        <is>
+          <t>Noody</t>
+        </is>
+      </c>
+      <c r="C396" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D396" s="0" t="inlineStr">
+        <is>
+          <t>19:45:35</t>
+        </is>
+      </c>
+      <c r="E396" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F396" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B397" s="0" t="inlineStr">
+        <is>
+          <t>Red Haag</t>
+        </is>
+      </c>
+      <c r="C397" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D397" s="0" t="inlineStr">
+        <is>
+          <t>19:45:41</t>
+        </is>
+      </c>
+      <c r="E397" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F397" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B398" s="0" t="inlineStr">
+        <is>
+          <t>Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="C398" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D398" s="0" t="inlineStr">
+        <is>
+          <t>19:45:48</t>
+        </is>
+      </c>
+      <c r="E398" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F398" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B399" s="0" t="inlineStr">
+        <is>
+          <t>Seez Beez</t>
+        </is>
+      </c>
+      <c r="C399" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D399" s="0" t="inlineStr">
+        <is>
+          <t>19:45:53</t>
+        </is>
+      </c>
+      <c r="E399" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F399" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B400" s="0" t="inlineStr">
+        <is>
+          <t>Senor Torreon</t>
+        </is>
+      </c>
+      <c r="C400" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D400" s="0" t="inlineStr">
+        <is>
+          <t>19:46:00</t>
+        </is>
+      </c>
+      <c r="E400" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F400" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B401" s="0" t="inlineStr">
+        <is>
+          <t>Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="C401" s="0" t="inlineStr">
+        <is>
+          <t>17/10/2022</t>
+        </is>
+      </c>
+      <c r="D401" s="0" t="inlineStr">
+        <is>
+          <t>19:46:07</t>
+        </is>
+      </c>
+      <c r="E401" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F401" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>19/10/2022</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>12:18:47</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>19/10/2022</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>12:18:53</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>19/10/2022</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>12:19:00</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>19/10/2022</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>12:19:06</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Acıbadem</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Çosa</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>19/10/2022</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>12:19:13</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>4.5</t>
         </is>
       </c>
     </row>
